--- a/LeetCode_Curated_SQL/LeetCodeSQL.xlsx
+++ b/LeetCode_Curated_SQL/LeetCodeSQL.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
   <si>
     <t>Easy</t>
   </si>
@@ -254,6 +254,120 @@
   </si>
   <si>
     <t>Difficulty  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">LeetCode 官網 (精選70題SQL)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://leetcode.com/problem-list/leetcode-curated-sql-70/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+LeetCode SQL 題庫網址 (英文)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>https://github.com/mrinal1704/SQL-Leetcode-Challenge/tree/master/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+LeetCode SQL 題庫網址 (中文)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">https://zqt0.gitbook.io/leetcode/sql
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Solving LeetCode SQL Interview Questions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=BGBXnNvWdQ4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>LeetCode 解題</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=DoGrxxa6kow&amp;list=PLdrw9_aIADIPAMJW8I_S-S747oyiRtzpS</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -261,7 +375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +463,22 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -403,7 +533,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,6 +570,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -449,8 +582,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF3300"/>
       <color rgb="FF66FF33"/>
-      <color rgb="FFFF3300"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -741,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E2" sqref="E2:S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -754,7 +887,7 @@
     <col min="3" max="3" width="20.21875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24.9" customHeight="1">
+    <row r="1" spans="1:19" ht="24.9" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>74</v>
       </c>
@@ -765,7 +898,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24.9" customHeight="1">
+    <row r="2" spans="1:19" ht="24.9" customHeight="1">
       <c r="A2" s="7">
         <v>511</v>
       </c>
@@ -775,8 +908,25 @@
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E2" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="24.9" customHeight="1">
       <c r="A3" s="7">
         <v>512</v>
       </c>
@@ -786,8 +936,23 @@
       <c r="C3" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" ht="24.9" customHeight="1">
       <c r="A4" s="7">
         <v>534</v>
       </c>
@@ -797,8 +962,23 @@
       <c r="C4" s="10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="24.9" customHeight="1">
       <c r="A5" s="7">
         <v>550</v>
       </c>
@@ -808,8 +988,23 @@
       <c r="C5" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="24.9" customHeight="1">
       <c r="A6" s="7">
         <v>570</v>
       </c>
@@ -819,8 +1014,23 @@
       <c r="C6" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" ht="24.9" customHeight="1">
       <c r="A7" s="7">
         <v>571</v>
       </c>
@@ -830,8 +1040,23 @@
       <c r="C7" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" ht="24.9" customHeight="1">
       <c r="A8" s="7">
         <v>580</v>
       </c>
@@ -841,8 +1066,23 @@
       <c r="C8" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" ht="24.9" customHeight="1">
       <c r="A9" s="7">
         <v>586</v>
       </c>
@@ -852,8 +1092,23 @@
       <c r="C9" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" ht="24.9" customHeight="1">
       <c r="A10" s="7">
         <v>603</v>
       </c>
@@ -863,8 +1118,23 @@
       <c r="C10" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" ht="24.9" customHeight="1">
       <c r="A11" s="7">
         <v>607</v>
       </c>
@@ -874,8 +1144,23 @@
       <c r="C11" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="24.9" customHeight="1">
       <c r="A12" s="7">
         <v>608</v>
       </c>
@@ -885,8 +1170,23 @@
       <c r="C12" s="10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" ht="24.9" customHeight="1">
       <c r="A13" s="7">
         <v>610</v>
       </c>
@@ -896,8 +1196,23 @@
       <c r="C13" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="24.9" customHeight="1">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" ht="24.9" customHeight="1">
       <c r="A14" s="7">
         <v>613</v>
       </c>
@@ -908,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24.9" customHeight="1">
+    <row r="15" spans="1:19" ht="24.9" customHeight="1">
       <c r="A15" s="7">
         <v>615</v>
       </c>
@@ -919,7 +1234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="24.9" customHeight="1">
+    <row r="16" spans="1:19" ht="24.9" customHeight="1">
       <c r="A16" s="7">
         <v>1045</v>
       </c>
@@ -1539,6 +1854,9 @@
   <autoFilter ref="A1:C71">
     <filterColumn colId="2"/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="E2:S13"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://leetcode.com/problems/game-play-analysis-i"/>
